--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Software.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Software.xlsx
@@ -26,10 +26,46 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>@Risk</t>
+  </si>
+  <si>
+    <t>Software_5</t>
+  </si>
+  <si>
+    <t>FSK-Lab</t>
+  </si>
+  <si>
+    <t>Software_7</t>
+  </si>
+  <si>
+    <t>FSSP</t>
+  </si>
+  <si>
+    <t>Software_6</t>
+  </si>
+  <si>
     <t>ICRA</t>
   </si>
   <si>
     <t>Software_1</t>
+  </si>
+  <si>
+    <t>Matlab</t>
+  </si>
+  <si>
+    <t>Software_8</t>
+  </si>
+  <si>
+    <t>MicroHibro</t>
+  </si>
+  <si>
+    <t>Software_3</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Software_9</t>
   </si>
   <si>
     <t>PMM-Lab</t>
@@ -38,46 +74,10 @@
     <t>Software_2</t>
   </si>
   <si>
-    <t>MicroHibro</t>
-  </si>
-  <si>
-    <t>Software_3</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
     <t>Software_4</t>
-  </si>
-  <si>
-    <t>@Risk</t>
-  </si>
-  <si>
-    <t>Software_5</t>
-  </si>
-  <si>
-    <t>FSSP</t>
-  </si>
-  <si>
-    <t>Software_6</t>
-  </si>
-  <si>
-    <t>FSK-Lab</t>
-  </si>
-  <si>
-    <t>Software_7</t>
-  </si>
-  <si>
-    <t>Matlab</t>
-  </si>
-  <si>
-    <t>Software_8</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Software_9</t>
   </si>
 </sst>
 </file>
